--- a/03_Resultados/02_Tabelas_resumo/Analise_univariada.xlsx
+++ b/03_Resultados/02_Tabelas_resumo/Analise_univariada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Arquivos\Portfolio\Projeto_Vendas_Alocacao_custos_Marketing\03_Resultados\02_Tabelas_resumo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7578C5-E0B5-4257-8F44-96D684203FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0E8B66-D7DB-47D2-99E3-702979B73D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
